--- a/DB/Basicinfo/TypeTransaction-2023-10-20.xlsx
+++ b/DB/Basicinfo/TypeTransaction-2023-10-20.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django_Proj\src\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0756F46E-566F-4C1E-8B50-D8941E2E0536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>typeTransaction_ar</t>
-  </si>
-  <si>
-    <t>typeTransaction_en</t>
-  </si>
-  <si>
     <t>قيد يومية</t>
   </si>
   <si>
@@ -37,12 +32,30 @@
   </si>
   <si>
     <t>سند صرف</t>
+  </si>
+  <si>
+    <t>فاتورة مبيعات</t>
+  </si>
+  <si>
+    <t>فاتورة مشتريات</t>
+  </si>
+  <si>
+    <t>مردودات مبيعات</t>
+  </si>
+  <si>
+    <t>مردودات مشتريات</t>
+  </si>
+  <si>
+    <t>name_ar</t>
+  </si>
+  <si>
+    <t>name_en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,6 +68,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,25 +395,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -407,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -415,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -423,7 +442,39 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
